--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H2">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I2">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J2">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N2">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O2">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P2">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q2">
-        <v>48.16407473216833</v>
+        <v>53.62189927478949</v>
       </c>
       <c r="R2">
-        <v>48.16407473216833</v>
+        <v>214.487597099158</v>
       </c>
       <c r="S2">
-        <v>0.02986197546434798</v>
+        <v>0.03036305685094376</v>
       </c>
       <c r="T2">
-        <v>0.02986197546434798</v>
+        <v>0.0170677517193195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H3">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I3">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J3">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N3">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P3">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q3">
-        <v>10.99544758293242</v>
+        <v>13.16075940623966</v>
       </c>
       <c r="R3">
-        <v>10.99544758293242</v>
+        <v>78.96455643743799</v>
       </c>
       <c r="S3">
-        <v>0.006817234375764993</v>
+        <v>0.007452195678587636</v>
       </c>
       <c r="T3">
-        <v>0.006817234375764993</v>
+        <v>0.006283568197546255</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H4">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I4">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J4">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N4">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O4">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P4">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q4">
-        <v>17.208683668814</v>
+        <v>20.52769791025716</v>
       </c>
       <c r="R4">
-        <v>17.208683668814</v>
+        <v>123.166187461543</v>
       </c>
       <c r="S4">
-        <v>0.01066947288719802</v>
+        <v>0.01162367739855825</v>
       </c>
       <c r="T4">
-        <v>0.01066947288719802</v>
+        <v>0.009800892621483101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H5">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I5">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J5">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N5">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O5">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P5">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q5">
-        <v>9.936348071103982</v>
+        <v>11.96528905190633</v>
       </c>
       <c r="R5">
-        <v>9.936348071103982</v>
+        <v>71.79173431143799</v>
       </c>
       <c r="S5">
-        <v>0.006160587200201162</v>
+        <v>0.006775268251115731</v>
       </c>
       <c r="T5">
-        <v>0.006160587200201162</v>
+        <v>0.005712794181569879</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H6">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I6">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J6">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N6">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O6">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P6">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q6">
-        <v>24.71322280016504</v>
+        <v>27.90976548972766</v>
       </c>
       <c r="R6">
-        <v>24.71322280016504</v>
+        <v>167.458592938366</v>
       </c>
       <c r="S6">
-        <v>0.01532232596613342</v>
+        <v>0.0158037258605558</v>
       </c>
       <c r="T6">
-        <v>0.01532232596613342</v>
+        <v>0.0133254403806729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.750204327986716</v>
+        <v>0.8352145</v>
       </c>
       <c r="H7">
-        <v>0.750204327986716</v>
+        <v>1.670429</v>
       </c>
       <c r="I7">
-        <v>0.07095222911213794</v>
+        <v>0.07459944913300412</v>
       </c>
       <c r="J7">
-        <v>0.07095222911213794</v>
+        <v>0.0536415799547362</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N7">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O7">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P7">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q7">
-        <v>3.420347623583287</v>
+        <v>4.55903630536175</v>
       </c>
       <c r="R7">
-        <v>3.420347623583287</v>
+        <v>18.236145221447</v>
       </c>
       <c r="S7">
-        <v>0.002120633218492367</v>
+        <v>0.002581525093242957</v>
       </c>
       <c r="T7">
-        <v>0.002120633218492367</v>
+        <v>0.001451132854144571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H8">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I8">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J8">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N8">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O8">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P8">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q8">
-        <v>500.8509851517435</v>
+        <v>530.3879050433198</v>
       </c>
       <c r="R8">
-        <v>500.8509851517435</v>
+        <v>3182.327430259919</v>
       </c>
       <c r="S8">
-        <v>0.3105302014637611</v>
+        <v>0.3003287524627969</v>
       </c>
       <c r="T8">
-        <v>0.3105302014637611</v>
+        <v>0.2532322390844182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H9">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I9">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J9">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N9">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P9">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q9">
-        <v>114.3400093268672</v>
+        <v>130.1764335963466</v>
       </c>
       <c r="R9">
-        <v>114.3400093268672</v>
+        <v>1171.58790236712</v>
       </c>
       <c r="S9">
-        <v>0.0708913972104559</v>
+        <v>0.07371157134296591</v>
       </c>
       <c r="T9">
-        <v>0.0708913972104559</v>
+        <v>0.093228567550766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H10">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I10">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J10">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N10">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O10">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P10">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q10">
-        <v>178.9505189629164</v>
+        <v>203.0447044441466</v>
       </c>
       <c r="R10">
-        <v>178.9505189629164</v>
+        <v>1827.40233999732</v>
       </c>
       <c r="S10">
-        <v>0.1109502473849843</v>
+        <v>0.1149727627648433</v>
       </c>
       <c r="T10">
-        <v>0.1109502473849843</v>
+        <v>0.1454146992749362</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H11">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I11">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J11">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N11">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O11">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P11">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q11">
-        <v>103.3265924425454</v>
+        <v>118.3517309030133</v>
       </c>
       <c r="R11">
-        <v>103.3265924425454</v>
+        <v>1065.16557812712</v>
       </c>
       <c r="S11">
-        <v>0.06406302177488261</v>
+        <v>0.06701590921650355</v>
       </c>
       <c r="T11">
-        <v>0.06406302177488261</v>
+        <v>0.08476006013081708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H12">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I12">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J12">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N12">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O12">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P12">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q12">
-        <v>256.9890951828102</v>
+        <v>276.0626208424266</v>
       </c>
       <c r="R12">
-        <v>256.9890951828102</v>
+        <v>2484.56358758184</v>
       </c>
       <c r="S12">
-        <v>0.1593345682986522</v>
+        <v>0.1563186900207394</v>
       </c>
       <c r="T12">
-        <v>0.1593345682986522</v>
+        <v>0.197708002780712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.80126222348656</v>
+        <v>8.26132</v>
       </c>
       <c r="H13">
-        <v>7.80126222348656</v>
+        <v>24.78396</v>
       </c>
       <c r="I13">
-        <v>0.7378215827281742</v>
+        <v>0.7378822100328354</v>
       </c>
       <c r="J13">
-        <v>0.7378215827281742</v>
+        <v>0.7958738575150359</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N13">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O13">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P13">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q13">
-        <v>35.56768164569267</v>
+        <v>45.09459283838</v>
       </c>
       <c r="R13">
-        <v>35.56768164569267</v>
+        <v>270.56755703028</v>
       </c>
       <c r="S13">
-        <v>0.02205214659543815</v>
+        <v>0.0255345242249864</v>
       </c>
       <c r="T13">
-        <v>0.02205214659543815</v>
+        <v>0.02153028869338649</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H14">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I14">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J14">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N14">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O14">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P14">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q14">
-        <v>29.22288357500856</v>
+        <v>31.28326389906799</v>
       </c>
       <c r="R14">
-        <v>29.22288357500856</v>
+        <v>187.6995833944079</v>
       </c>
       <c r="S14">
-        <v>0.01811833897291847</v>
+        <v>0.01771394771719799</v>
       </c>
       <c r="T14">
-        <v>0.01811833897291847</v>
+        <v>0.0149361078706776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H15">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I15">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J15">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N15">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P15">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q15">
-        <v>6.671335146744498</v>
+        <v>7.678047871965332</v>
       </c>
       <c r="R15">
-        <v>6.671335146744498</v>
+        <v>69.10243084768798</v>
       </c>
       <c r="S15">
-        <v>0.004136262298701855</v>
+        <v>0.004347645405957439</v>
       </c>
       <c r="T15">
-        <v>0.004136262298701855</v>
+        <v>0.00549879409747191</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H16">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I16">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J16">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N16">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O16">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P16">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q16">
-        <v>10.44112986970824</v>
+        <v>11.97595384818533</v>
       </c>
       <c r="R16">
-        <v>10.44112986970824</v>
+        <v>107.783584633668</v>
       </c>
       <c r="S16">
-        <v>0.006473554526337755</v>
+        <v>0.00678130712366785</v>
       </c>
       <c r="T16">
-        <v>0.006473554526337755</v>
+        <v>0.008576829088608066</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H17">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I17">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J17">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N17">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O17">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P17">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q17">
-        <v>6.028741223771458</v>
+        <v>6.980604941298665</v>
       </c>
       <c r="R17">
-        <v>6.028741223771458</v>
+        <v>62.82544447168799</v>
       </c>
       <c r="S17">
-        <v>0.003737850742618462</v>
+        <v>0.003952722815737346</v>
       </c>
       <c r="T17">
-        <v>0.003737850742618462</v>
+        <v>0.004999305798567659</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H18">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I18">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J18">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N18">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O18">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P18">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q18">
-        <v>14.99440478548475</v>
+        <v>16.28268619695733</v>
       </c>
       <c r="R18">
-        <v>14.99440478548475</v>
+        <v>146.544175772616</v>
       </c>
       <c r="S18">
-        <v>0.009296608526096962</v>
+        <v>0.00921996671827573</v>
       </c>
       <c r="T18">
-        <v>0.009296608526096962</v>
+        <v>0.01166118527050786</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.455176059254411</v>
+        <v>0.487268</v>
       </c>
       <c r="H19">
-        <v>0.455176059254411</v>
+        <v>1.461804</v>
       </c>
       <c r="I19">
-        <v>0.04304927982653669</v>
+        <v>0.04352166345308978</v>
       </c>
       <c r="J19">
-        <v>0.04304927982653669</v>
+        <v>0.04694211854808148</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N19">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O19">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P19">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q19">
-        <v>2.075248428332711</v>
+        <v>2.659762854262</v>
       </c>
       <c r="R19">
-        <v>2.075248428332711</v>
+        <v>15.958577125572</v>
       </c>
       <c r="S19">
-        <v>0.00128666475986319</v>
+        <v>0.001506073672253426</v>
       </c>
       <c r="T19">
-        <v>0.00128666475986319</v>
+        <v>0.001269896422248387</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H20">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I20">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J20">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N20">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O20">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P20">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q20">
-        <v>100.5860390271889</v>
+        <v>103.504455061935</v>
       </c>
       <c r="R20">
-        <v>100.5860390271889</v>
+        <v>414.0178202477399</v>
       </c>
       <c r="S20">
-        <v>0.06236386448175078</v>
+        <v>0.05860873441402031</v>
       </c>
       <c r="T20">
-        <v>0.06236386448175078</v>
+        <v>0.03294527729776136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H21">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I21">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J21">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N21">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P21">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q21">
-        <v>22.96293504751105</v>
+        <v>25.40374826268999</v>
       </c>
       <c r="R21">
-        <v>22.96293504751105</v>
+        <v>152.42248957614</v>
       </c>
       <c r="S21">
-        <v>0.01423713850606179</v>
+        <v>0.01438470966450392</v>
       </c>
       <c r="T21">
-        <v>0.01423713850606179</v>
+        <v>0.01212894938313584</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H22">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I22">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J22">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N22">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O22">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P22">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q22">
-        <v>35.93868120052944</v>
+        <v>39.623889019465</v>
       </c>
       <c r="R22">
-        <v>35.93868120052944</v>
+        <v>237.74333411679</v>
       </c>
       <c r="S22">
-        <v>0.02228216823844545</v>
+        <v>0.02243677324423203</v>
       </c>
       <c r="T22">
-        <v>0.02228216823844545</v>
+        <v>0.01891831627799294</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H23">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I23">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J23">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N23">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O23">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P23">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q23">
-        <v>20.75110755112814</v>
+        <v>23.09617413269</v>
       </c>
       <c r="R23">
-        <v>20.75110755112814</v>
+        <v>138.57704479614</v>
       </c>
       <c r="S23">
-        <v>0.01286579401754734</v>
+        <v>0.01307806060051043</v>
       </c>
       <c r="T23">
-        <v>0.01286579401754734</v>
+        <v>0.01102720449371298</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H24">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I24">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J24">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N24">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O24">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P24">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q24">
-        <v>51.61118960320792</v>
+        <v>53.87323289532999</v>
       </c>
       <c r="R24">
-        <v>51.61118960320792</v>
+        <v>323.23939737198</v>
       </c>
       <c r="S24">
-        <v>0.03199920451471779</v>
+        <v>0.03050537290300894</v>
       </c>
       <c r="T24">
-        <v>0.03199920451471779</v>
+        <v>0.02572162612133188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.56672960568344</v>
+        <v>1.612185</v>
       </c>
       <c r="H25">
-        <v>1.56672960568344</v>
+        <v>3.22437</v>
       </c>
       <c r="I25">
-        <v>0.1481769083331513</v>
+        <v>0.1439966773810707</v>
       </c>
       <c r="J25">
-        <v>0.1481769083331513</v>
+        <v>0.1035424439821464</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N25">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O25">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P25">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q25">
-        <v>7.143067140092296</v>
+        <v>8.8001464844775</v>
       </c>
       <c r="R25">
-        <v>7.143067140092296</v>
+        <v>35.20058593791</v>
       </c>
       <c r="S25">
-        <v>0.00442873857462814</v>
+        <v>0.004983026554795082</v>
       </c>
       <c r="T25">
-        <v>0.00442873857462814</v>
+        <v>0.002801070408211383</v>
       </c>
     </row>
   </sheetData>
